--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>23.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519097</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华中小市值优选混合</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.63</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001279</t>
+          <t>630008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海积极增利灵活配置混合</t>
+          <t>华商策略精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.02</t>
+          <t>8.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>630008</t>
+          <t>001809</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商策略精选混合</t>
+          <t>中信建投智信物联网灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.72</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.79</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2844</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>001959</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>华商乐享互联灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.88</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>24.84</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.12</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009006</t>
+          <t>004636</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信鑫祺混合C</t>
+          <t>中信建投智信物联网灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001809</t>
+          <t>519097</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合A</t>
+          <t>新华中小市值优选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001959</t>
+          <t>001279</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商乐享互联灵活配置混合</t>
+          <t>中海积极增利灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.48</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004636</t>
+          <t>006823</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中信建投智信物联网灵活配置混合C</t>
+          <t>凯石湛混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -838,15 +968,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>92.93</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.77</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>009006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>创金合信鑫祺混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>84.78</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>006822</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>凯石湛混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006822</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>凯石湛混合A</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>77.93</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006823</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>凯石湛混合C</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>77.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.17</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501015</t>
+          <t>000390</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通多策略升级混合（LOF）</t>
+          <t>华商优势行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159852</t>
+          <t>501015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证软件服务ETF</t>
+          <t>财通多策略升级混合（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.55</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>159852</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>嘉实中证软件服务ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.67</v>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1558,13 +1623,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1916,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.67</v>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2041,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.11</v>
       </c>
     </row>
@@ -583,6 +600,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1365</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013122</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016071</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -973,176 +2640,6 @@
       </c>
       <c r="H10" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业聚华混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1655</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005985</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业聚华混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1222,17 +2719,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.1655</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1255,22 +2752,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0599</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1298,21 +2795,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1321,6 +2818,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +3289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
+++ b/数据整理/stocks/A股/上证主板/600536-中国软件.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D2" t="n">
-        <v>6.92</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>0.87</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.67</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.11</v>
       </c>
     </row>
@@ -600,6 +617,5628 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安智能生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6348</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4135</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013621</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安智能生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时数字经济混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013958</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天治核心成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东吴新趋势价值线灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>630015</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华商大盘量化精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014558</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009917</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>格林泓利增强债券C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001323</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013959</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华商鑫选回报一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>60.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>36.60</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009916</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>格林泓利增强债券A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004321</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>前海开源沪港深强国产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011214</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时数字经济混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>76.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000432</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银优秀企业混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014972</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东吴移动互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001530</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011215</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>招商惠润一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>68.20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012007</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>万家瑞富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014559</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014975</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>015057</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>015077</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>017178</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>016048</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>016071</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>016041</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010670</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>兴全合兴混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>017628</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2249,7 +7888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2640,176 +8279,6 @@
       </c>
       <c r="H10" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005984</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业聚华混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1655</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005985</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业聚华混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>24.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000417</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国联安新精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2889,17 +8358,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.1655</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2922,22 +8391,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.35</t>
+          <t>24.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0599</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2965,21 +8434,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2988,6 +8457,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005984</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业聚华混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业聚华混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3081,7 +8720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3289,7 +8928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
